--- a/成果物/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
+++ b/成果物/プロジェクト型演習_成果物フォーマット_ヤマシタイッセイ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\task_mgmt_system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\task_mgmt_system\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2B545B-7149-44E4-B7ED-EE069A21D043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7062A849-136A-48D8-80A9-43355A45017A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="126">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -197,13 +197,6 @@
     <t>結果</t>
   </si>
   <si>
-    <t>タスク管理システム</t>
-    <rPh sb="3" eb="5">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>57期</t>
     <rPh sb="2" eb="3">
       <t>キ</t>
@@ -944,6 +937,24 @@
 URLが不正な値：TaskListServletに遷移。ユースケースを終了。</t>
     <phoneticPr fontId="8"/>
   </si>
+  <si>
+    <t>山下</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマシタ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t xml:space="preserve">タスク管理システム(task_mgmt_system)								</t>
+    <phoneticPr fontId="8"/>
+  </si>
 </sst>
 </file>
 
@@ -970,6 +981,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1057,7 +1069,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="72">
+  <borders count="69">
     <border>
       <left/>
       <right/>
@@ -1857,50 +1869,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2036,25 +2009,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3624,8 +3582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3636,85 +3594,85 @@
   <sheetData>
     <row r="1" spans="3:16" ht="30" customHeight="1"/>
     <row r="2" spans="3:16" ht="30" customHeight="1">
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="3:16" ht="30" customHeight="1">
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="3:16" ht="30" customHeight="1">
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="3:16" ht="30" customHeight="1">
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="3:16" ht="30" customHeight="1">
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="3:16" ht="30" customHeight="1">
@@ -3734,46 +3692,48 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
-      <c r="E8" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
+      <c r="E8" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
     </row>
     <row r="9" spans="3:16" ht="30" customHeight="1"/>
     <row r="10" spans="3:16" ht="30" customHeight="1"/>
     <row r="11" spans="3:16" ht="30" customHeight="1"/>
     <row r="12" spans="3:16" ht="30" customHeight="1"/>
     <row r="13" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G13" s="52" t="s">
+      <c r="G13" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="54"/>
-      <c r="I13" s="60">
+      <c r="H13" s="49"/>
+      <c r="I13" s="55">
         <v>45877</v>
       </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49"/>
     </row>
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G14" s="52"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="54"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="55">
+        <v>45898</v>
+      </c>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
     </row>
     <row r="15" spans="3:16" ht="15.75" customHeight="1">
-      <c r="G15" s="52"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49"/>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1">
       <c r="G16" s="3"/>
@@ -3782,13 +3742,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="7:11" ht="30" customHeight="1">
-      <c r="G17" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
+      <c r="G17" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
     </row>
     <row r="18" spans="7:11" ht="14.25" customHeight="1"/>
     <row r="19" spans="7:11" ht="24.75" customHeight="1"/>
@@ -4807,19 +4767,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="95" t="s">
+      <c r="E1" s="78"/>
+      <c r="F1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="83"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
@@ -4831,195 +4791,195 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="96" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="92"/>
+      <c r="F2" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="92"/>
+      <c r="H2" s="95">
+        <v>45877</v>
+      </c>
+      <c r="I2" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="100">
-        <v>45877</v>
-      </c>
-      <c r="I2" s="89" t="s">
+      <c r="J2" s="87"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" customHeight="1">
+      <c r="A3" s="72"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="88"/>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1">
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="89"/>
+    </row>
+    <row r="5" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A5" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="92"/>
-    </row>
-    <row r="3" spans="1:11" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="93"/>
-    </row>
-    <row r="4" spans="1:11" ht="18" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="94"/>
-    </row>
-    <row r="5" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A5" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="64" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
+    </row>
+    <row r="6" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A6" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
-    </row>
-    <row r="6" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A6" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="67" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="63"/>
+    </row>
+    <row r="7" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A7" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="63"/>
+    </row>
+    <row r="8" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A8" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="63"/>
+    </row>
+    <row r="9" spans="1:11" ht="64.5" customHeight="1">
+      <c r="A9" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="68"/>
-    </row>
-    <row r="7" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A7" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="68"/>
-    </row>
-    <row r="8" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A8" s="84" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="69" t="s">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="63"/>
+    </row>
+    <row r="10" spans="1:11" ht="64.5" customHeight="1">
+      <c r="A10" s="81"/>
+      <c r="B10" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="49"/>
+      <c r="D10" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="35"/>
+    </row>
+    <row r="11" spans="1:11" ht="64.5" customHeight="1">
+      <c r="A11" s="82"/>
+      <c r="B11" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="49"/>
+      <c r="D11" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="63"/>
+    </row>
+    <row r="12" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A12" s="79" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="63"/>
+    </row>
+    <row r="13" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A13" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="68"/>
-    </row>
-    <row r="9" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A9" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="68"/>
-    </row>
-    <row r="10" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A10" s="86"/>
-      <c r="B10" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A11" s="87"/>
-      <c r="B11" s="88" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="71" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="68"/>
-    </row>
-    <row r="12" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A12" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="67" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="68"/>
-    </row>
-    <row r="13" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A13" s="72" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1"/>
     <row r="15" spans="1:11" ht="12.75" customHeight="1"/>
@@ -6060,19 +6020,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="95" t="s">
+      <c r="E1" s="78"/>
+      <c r="F1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="83"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -6084,48 +6044,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="96" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="92"/>
+      <c r="F2" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="92"/>
+      <c r="H2" s="95">
+        <v>45877</v>
+      </c>
+      <c r="I2" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="100">
-        <v>45877</v>
-      </c>
-      <c r="I2" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="92"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="93"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="94"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -7473,7 +7433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -7485,19 +7445,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="95" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="95" t="s">
+      <c r="E1" s="78"/>
+      <c r="F1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="83"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -7509,48 +7469,48 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="96" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="92"/>
+      <c r="F2" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="92"/>
+      <c r="H2" s="95">
+        <v>45878</v>
+      </c>
+      <c r="I2" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="100">
-        <v>45878</v>
-      </c>
-      <c r="I2" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="92"/>
+      <c r="J2" s="87"/>
     </row>
     <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="93"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="88"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="94"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="89"/>
     </row>
     <row r="5" spans="1:10" ht="12.75" customHeight="1">
       <c r="A5" s="8"/>
@@ -8906,19 +8866,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="95" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="83"/>
-      <c r="F1" s="95" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="78"/>
+      <c r="F1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="83"/>
+      <c r="G1" s="78"/>
       <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
@@ -8930,205 +8890,205 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="96" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="92"/>
+      <c r="F2" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="92"/>
+      <c r="H2" s="95">
+        <v>45889</v>
+      </c>
+      <c r="I2" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="100">
-        <v>45889</v>
-      </c>
-      <c r="I2" s="89" t="s">
+      <c r="J2" s="87"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1">
+      <c r="A3" s="72"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="88"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1">
+      <c r="A4" s="72"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A5" s="106" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="92"/>
-    </row>
-    <row r="3" spans="1:10" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="93"/>
-    </row>
-    <row r="4" spans="1:10" ht="18" customHeight="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="93"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.5" customHeight="1">
-      <c r="A5" s="111" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="66"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="68"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1">
-      <c r="A7" s="112" t="e" vm="1">
+      <c r="A7" s="107" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="117"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="112"/>
     </row>
     <row r="8" spans="1:10" ht="21" customHeight="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="118"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="113"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="118"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="113"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="118"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="113"/>
     </row>
     <row r="11" spans="1:10" ht="21" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="118"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="113"/>
     </row>
     <row r="12" spans="1:10" ht="21" customHeight="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="118"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="113"/>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="118"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="113"/>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="68"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="63"/>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="54"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
       <c r="I15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A16" s="114" t="s">
+      <c r="A16" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="15" t="s">
         <v>27</v>
       </c>
@@ -9141,163 +9101,163 @@
       <c r="G16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="119" t="s">
+      <c r="H16" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="53"/>
-      <c r="J16" s="68"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="63"/>
     </row>
     <row r="17" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A17" s="104" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
+      <c r="A17" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="17"/>
       <c r="E17" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>63</v>
-      </c>
       <c r="G17" s="17"/>
-      <c r="H17" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="105"/>
-      <c r="J17" s="107"/>
+      <c r="H17" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="100"/>
+      <c r="J17" s="102"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A18" s="104" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
+      <c r="A18" s="99" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="G18" s="17"/>
-      <c r="H18" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="105"/>
-      <c r="J18" s="107"/>
+      <c r="H18" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="100"/>
+      <c r="J18" s="102"/>
     </row>
     <row r="19" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A19" s="104" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="105"/>
-      <c r="C19" s="106"/>
+      <c r="A19" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="G19" s="17"/>
+      <c r="H19" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="100"/>
+      <c r="J19" s="102"/>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A20" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="17"/>
-      <c r="H19" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="105"/>
-      <c r="J19" s="107"/>
-    </row>
-    <row r="20" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A20" s="104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="105"/>
-      <c r="C20" s="106"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="17"/>
       <c r="E20" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F20" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="100"/>
+      <c r="J20" s="102"/>
+    </row>
+    <row r="21" spans="1:11" ht="19.5" customHeight="1">
+      <c r="A21" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" s="105"/>
-      <c r="J20" s="107"/>
-    </row>
-    <row r="21" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A21" s="104" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="105"/>
-      <c r="C21" s="106"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G21" s="17"/>
-      <c r="H21" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" s="105"/>
-      <c r="J21" s="107"/>
+      <c r="H21" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="100"/>
+      <c r="J21" s="102"/>
     </row>
     <row r="22" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A22" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="106"/>
+      <c r="A22" s="99" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F22" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="G22" s="17"/>
-      <c r="H22" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="105"/>
-      <c r="J22" s="107"/>
+      <c r="H22" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="100"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="112" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="97"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="36"/>
       <c r="E23" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="96"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="103"/>
+        <v>78</v>
+      </c>
+      <c r="H23" s="91"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="98"/>
     </row>
     <row r="24" spans="1:11" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A24" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="110"/>
+      <c r="A24" s="103" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="41"/>
       <c r="E24" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="41"/>
       <c r="G24" s="44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -10329,202 +10289,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:K27"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="2.85546875" customWidth="1"/>
-    <col min="7" max="20" width="8.140625" customWidth="1"/>
+    <col min="7" max="17" width="8.140625" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="19" max="20" width="8.140625" customWidth="1"/>
     <col min="21" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" customHeight="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="95" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="95" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="95" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="95" t="s">
+      <c r="P1" s="78"/>
+      <c r="Q1" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="83"/>
-      <c r="S1" s="95" t="s">
+      <c r="R1" s="78"/>
+      <c r="S1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="66"/>
+      <c r="T1" s="61"/>
     </row>
     <row r="2" spans="1:26" ht="18" customHeight="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="96" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="91" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="150">
+        <v>45889</v>
+      </c>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="155">
-        <v>45889</v>
-      </c>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="96" t="s">
+      <c r="R2" s="92"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="112"/>
+    </row>
+    <row r="3" spans="1:26" ht="18" customHeight="1">
+      <c r="A3" s="72"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="93"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="93"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="93"/>
+      <c r="T3" s="113"/>
+    </row>
+    <row r="4" spans="1:26" ht="18" customHeight="1">
+      <c r="A4" s="74"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="151"/>
+    </row>
+    <row r="5" spans="1:26" ht="18" customHeight="1">
+      <c r="A5" s="106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="61"/>
+    </row>
+    <row r="6" spans="1:26" ht="18" customHeight="1">
+      <c r="A6" s="109" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="63"/>
+    </row>
+    <row r="7" spans="1:26" ht="18" customHeight="1">
+      <c r="A7" s="109" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="R2" s="97"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="117"/>
-    </row>
-    <row r="3" spans="1:26" ht="18" customHeight="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="118"/>
-    </row>
-    <row r="4" spans="1:26" ht="18" customHeight="1">
-      <c r="A4" s="79"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="99"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="156"/>
-    </row>
-    <row r="5" spans="1:26" ht="18" customHeight="1">
-      <c r="A5" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="66"/>
-    </row>
-    <row r="6" spans="1:26" ht="18" customHeight="1">
-      <c r="A6" s="114" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="67" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="68"/>
-    </row>
-    <row r="7" spans="1:26" ht="18" customHeight="1">
-      <c r="A7" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="68"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="63"/>
     </row>
     <row r="8" spans="1:26" ht="7.5" customHeight="1">
       <c r="A8" s="8"/>
@@ -10586,7 +10548,7 @@
       <c r="C10" s="24"/>
       <c r="D10" s="19"/>
       <c r="E10" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="25"/>
@@ -10723,37 +10685,37 @@
       <c r="T14" s="10"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="114" t="s">
+      <c r="A15" s="109" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="154" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="119" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="54"/>
-      <c r="G15" s="119" t="s">
+      <c r="F15" s="49"/>
+      <c r="G15" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="119" t="s">
+      <c r="H15" s="48"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="119" t="s">
+      <c r="K15" s="49"/>
+      <c r="L15" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="53"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="119" t="s">
+      <c r="M15" s="48"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="P15" s="53"/>
-      <c r="Q15" s="54"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="49"/>
       <c r="R15" s="15" t="s">
         <v>46</v>
       </c>
@@ -10765,40 +10727,46 @@
       </c>
     </row>
     <row r="16" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A16" s="122">
+      <c r="A16" s="117">
         <v>1</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="123" t="s">
+      <c r="B16" s="125"/>
+      <c r="C16" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="125"/>
+      <c r="E16" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="130"/>
-      <c r="E16" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="130"/>
-      <c r="G16" s="135" t="s">
+      <c r="F16" s="125"/>
+      <c r="G16" s="130" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="136"/>
-      <c r="I16" s="137"/>
-      <c r="J16" s="135" t="s">
+      <c r="K16" s="132"/>
+      <c r="L16" s="126" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="133"/>
+      <c r="N16" s="134"/>
+      <c r="O16" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="137"/>
-      <c r="L16" s="131" t="s">
-        <v>90</v>
-      </c>
-      <c r="M16" s="138"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="131" t="s">
-        <v>86</v>
-      </c>
-      <c r="P16" s="138"/>
-      <c r="Q16" s="139"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="31"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="46">
+        <v>45881</v>
+      </c>
+      <c r="S16" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T16" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="U16" s="32"/>
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
@@ -10807,38 +10775,44 @@
       <c r="Z16" s="32"/>
     </row>
     <row r="17" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A17" s="122">
+      <c r="A17" s="117">
         <v>2</v>
       </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="130"/>
-      <c r="E17" s="123" t="s">
+      <c r="B17" s="125"/>
+      <c r="C17" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="125"/>
+      <c r="E17" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="125"/>
+      <c r="G17" s="130" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="131"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="126" t="s">
+        <v>90</v>
+      </c>
+      <c r="M17" s="133"/>
+      <c r="N17" s="134"/>
+      <c r="O17" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="130"/>
-      <c r="G17" s="135" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="136"/>
-      <c r="I17" s="137"/>
-      <c r="J17" s="135"/>
-      <c r="K17" s="137"/>
-      <c r="L17" s="131" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" s="138"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="131" t="s">
-        <v>88</v>
-      </c>
-      <c r="P17" s="138"/>
-      <c r="Q17" s="139"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="31"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="46">
+        <v>45881</v>
+      </c>
+      <c r="S17" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T17" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="U17" s="32"/>
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
@@ -10847,36 +10821,42 @@
       <c r="Z17" s="32"/>
     </row>
     <row r="18" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A18" s="122">
+      <c r="A18" s="117">
         <v>3</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="130"/>
-      <c r="E18" s="123" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18" s="130"/>
-      <c r="G18" s="135" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="136"/>
-      <c r="I18" s="137"/>
-      <c r="J18" s="135"/>
-      <c r="K18" s="137"/>
-      <c r="L18" s="131"/>
-      <c r="M18" s="138"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" s="138"/>
-      <c r="Q18" s="139"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="31"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="125"/>
+      <c r="E18" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="125"/>
+      <c r="G18" s="130" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="131"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="130"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="46">
+        <v>45881</v>
+      </c>
+      <c r="S18" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T18" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="U18" s="32"/>
       <c r="V18" s="32"/>
       <c r="W18" s="32"/>
@@ -10885,40 +10865,46 @@
       <c r="Z18" s="32"/>
     </row>
     <row r="19" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A19" s="145">
+      <c r="A19" s="140">
         <v>4</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="146" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="147"/>
-      <c r="E19" s="146" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="147"/>
-      <c r="G19" s="148" t="s">
+      <c r="B19" s="92"/>
+      <c r="C19" s="141" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="142"/>
+      <c r="E19" s="141" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="142"/>
+      <c r="G19" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="144"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="143" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="145"/>
+      <c r="L19" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="H19" s="149"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="K19" s="150"/>
-      <c r="L19" s="151" t="s">
+      <c r="M19" s="147"/>
+      <c r="N19" s="148"/>
+      <c r="O19" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="152"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="151" t="s">
-        <v>95</v>
-      </c>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="153"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="46"/>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="46">
+        <v>45881</v>
+      </c>
+      <c r="S19" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T19" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="U19" s="32"/>
       <c r="V19" s="32"/>
       <c r="W19" s="32"/>
@@ -10927,39 +10913,45 @@
       <c r="Z19" s="32"/>
     </row>
     <row r="20" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A20" s="120">
+      <c r="A20" s="115">
         <v>5</v>
       </c>
-      <c r="B20" s="120"/>
-      <c r="C20" s="120" t="s">
+      <c r="B20" s="115"/>
+      <c r="C20" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="115"/>
+      <c r="E20" s="116" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="120"/>
-      <c r="E20" s="121" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="121"/>
-      <c r="G20" s="158" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="143" t="s">
+      <c r="F20" s="116"/>
+      <c r="G20" s="153" t="s">
+        <v>102</v>
+      </c>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
+      <c r="K20" s="153"/>
+      <c r="L20" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143" t="s">
-        <v>99</v>
-      </c>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="49"/>
+      <c r="P20" s="138"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="46">
+        <v>45881</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T20" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="U20" s="45"/>
       <c r="V20" s="32"/>
       <c r="W20" s="32"/>
       <c r="X20" s="32"/>
@@ -10967,36 +10959,42 @@
       <c r="Z20" s="32"/>
     </row>
     <row r="21" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A21" s="126"/>
-      <c r="B21" s="127"/>
-      <c r="C21" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="129"/>
-      <c r="E21" s="128" t="s">
-        <v>87</v>
-      </c>
-      <c r="F21" s="129"/>
-      <c r="G21" s="132" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" s="133"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="134"/>
-      <c r="L21" s="140" t="s">
-        <v>100</v>
-      </c>
-      <c r="M21" s="141"/>
-      <c r="N21" s="142"/>
-      <c r="O21" s="140" t="s">
-        <v>113</v>
-      </c>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="142"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="48"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="124"/>
+      <c r="E21" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="124"/>
+      <c r="G21" s="127" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="128"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="135" t="s">
+        <v>99</v>
+      </c>
+      <c r="M21" s="136"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="135" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="46">
+        <v>45881</v>
+      </c>
+      <c r="S21" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T21" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="U21" s="32"/>
       <c r="V21" s="32"/>
       <c r="W21" s="32"/>
@@ -11005,36 +11003,42 @@
       <c r="Z21" s="32"/>
     </row>
     <row r="22" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A22" s="122"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="123" t="s">
+      <c r="A22" s="117"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="54"/>
-      <c r="G22" s="135" t="s">
-        <v>104</v>
-      </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="135"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="131" t="s">
-        <v>101</v>
-      </c>
-      <c r="M22" s="53"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="131" t="s">
-        <v>99</v>
-      </c>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="31"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="130" t="s">
+        <v>103</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="48"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="46">
+        <v>45881</v>
+      </c>
+      <c r="S22" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T22" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="U22" s="32"/>
       <c r="V22" s="32"/>
       <c r="W22" s="32"/>
@@ -11043,36 +11047,42 @@
       <c r="Z22" s="32"/>
     </row>
     <row r="23" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A23" s="122"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="123" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="123" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="54"/>
-      <c r="G23" s="135" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="135"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="131" t="s">
-        <v>102</v>
-      </c>
-      <c r="M23" s="53"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="131" t="s">
-        <v>112</v>
-      </c>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="31"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="49"/>
+      <c r="E23" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="49"/>
+      <c r="G23" s="130" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="48"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="126" t="s">
+        <v>111</v>
+      </c>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="46">
+        <v>45881</v>
+      </c>
+      <c r="S23" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T23" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="U23" s="32"/>
       <c r="V23" s="32"/>
       <c r="W23" s="32"/>
@@ -11081,38 +11091,44 @@
       <c r="Z23" s="32"/>
     </row>
     <row r="24" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A24" s="122">
+      <c r="A24" s="117">
         <v>6</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="123" t="s">
+      <c r="B24" s="49"/>
+      <c r="C24" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="54"/>
-      <c r="G24" s="135" t="s">
+      <c r="F24" s="49"/>
+      <c r="G24" s="130" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="48"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="130"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="H24" s="53"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="135"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="131" t="s">
-        <v>108</v>
-      </c>
-      <c r="M24" s="53"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="131" t="s">
-        <v>114</v>
-      </c>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="31"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="126" t="s">
+        <v>113</v>
+      </c>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="46">
+        <v>45881</v>
+      </c>
+      <c r="S24" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T24" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
@@ -11121,38 +11137,44 @@
       <c r="Z24" s="32"/>
     </row>
     <row r="25" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A25" s="122">
+      <c r="A25" s="117">
         <v>7</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="123" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="49"/>
+      <c r="E25" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="54"/>
-      <c r="G25" s="135" t="s">
+      <c r="F25" s="49"/>
+      <c r="G25" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="130"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="131" t="s">
+      <c r="M25" s="48"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="M25" s="53"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="131" t="s">
-        <v>111</v>
-      </c>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="30"/>
-      <c r="S25" s="30"/>
-      <c r="T25" s="31"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="46">
+        <v>45881</v>
+      </c>
+      <c r="S25" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T25" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
@@ -11161,40 +11183,46 @@
       <c r="Z25" s="32"/>
     </row>
     <row r="26" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A26" s="122">
+      <c r="A26" s="117">
         <v>8</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="123" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="49"/>
+      <c r="E26" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="54"/>
-      <c r="G26" s="135" t="s">
-        <v>115</v>
-      </c>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="135" t="s">
-        <v>118</v>
-      </c>
-      <c r="K26" s="54"/>
-      <c r="L26" s="131" t="s">
+      <c r="F26" s="49"/>
+      <c r="G26" s="130" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="130" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26" s="49"/>
+      <c r="L26" s="126" t="s">
+        <v>119</v>
+      </c>
+      <c r="M26" s="48"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="M26" s="53"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="131" t="s">
-        <v>121</v>
-      </c>
-      <c r="P26" s="53"/>
-      <c r="Q26" s="54"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="31"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="46">
+        <v>45881</v>
+      </c>
+      <c r="S26" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T26" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
@@ -11203,38 +11231,44 @@
       <c r="Z26" s="32"/>
     </row>
     <row r="27" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A27" s="122"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="123" t="s">
+      <c r="A27" s="117"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="118" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="49"/>
+      <c r="E27" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="123" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="135" t="s">
+      <c r="F27" s="49"/>
+      <c r="G27" s="130" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="135" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27" s="54"/>
-      <c r="L27" s="131" t="s">
-        <v>116</v>
-      </c>
-      <c r="M27" s="53"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="131" t="s">
-        <v>119</v>
-      </c>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="31"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="126" t="s">
+        <v>115</v>
+      </c>
+      <c r="M27" s="48"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="46">
+        <v>45881</v>
+      </c>
+      <c r="S27" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="T27" s="31" t="s">
+        <v>124</v>
+      </c>
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
@@ -11243,23 +11277,23 @@
       <c r="Z27" s="32"/>
     </row>
     <row r="28" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A28" s="122"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="135"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="131"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="54"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="130"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="126"/>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="49"/>
       <c r="R28" s="30"/>
       <c r="S28" s="30"/>
       <c r="T28" s="31"/>
@@ -11271,23 +11305,23 @@
       <c r="Z28" s="32"/>
     </row>
     <row r="29" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A29" s="122"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="135"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="131"/>
-      <c r="P29" s="53"/>
-      <c r="Q29" s="54"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="126"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="126"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="49"/>
       <c r="R29" s="30"/>
       <c r="S29" s="30"/>
       <c r="T29" s="31"/>
@@ -11299,23 +11333,23 @@
       <c r="Z29" s="32"/>
     </row>
     <row r="30" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A30" s="122"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="123"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="135"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="135"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="131"/>
-      <c r="P30" s="53"/>
-      <c r="Q30" s="54"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="126"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="49"/>
       <c r="R30" s="30"/>
       <c r="S30" s="30"/>
       <c r="T30" s="31"/>
@@ -11327,23 +11361,23 @@
       <c r="Z30" s="32"/>
     </row>
     <row r="31" spans="1:26" ht="36.75" customHeight="1">
-      <c r="A31" s="124"/>
-      <c r="B31" s="73"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="73"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="73"/>
-      <c r="O31" s="144"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="73"/>
+      <c r="A31" s="119"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="120"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="68"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="68"/>
       <c r="R31" s="33"/>
       <c r="S31" s="33"/>
       <c r="T31" s="34"/>
